--- a/cardapio.xlsx
+++ b/cardapio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tesouro-my.sharepoint.com/personal/carson_souza_tesouro_gov_br/Documents/_Pessoal/PIT II/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="8_{B76190B4-94AE-480A-B96A-1953FB7B7133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DC8AAE8-2969-439D-B87F-CE3334CF4D28}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="8_{B76190B4-94AE-480A-B96A-1953FB7B7133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C249F79-BFE3-46EA-8789-0F8822C36ADB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A0DF723A-0349-4DD0-8A9C-D939128763EE}"/>
   </bookViews>
@@ -633,7 +633,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A2" sqref="A2:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -660,7 +660,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -674,7 +674,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>2</v>
@@ -687,8 +687,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>3</v>
+      <c r="A4" s="5">
+        <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>6</v>
@@ -715,8 +715,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>5</v>
+      <c r="A6" s="5">
+        <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
@@ -730,7 +730,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>10</v>
@@ -743,8 +743,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>7</v>
+      <c r="A8" s="5">
+        <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>12</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>14</v>
@@ -772,8 +772,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>9</v>
+      <c r="A10" s="5">
+        <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>16</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>18</v>
@@ -800,8 +800,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>11</v>
+      <c r="A12" s="5">
+        <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>20</v>
@@ -814,8 +814,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>12</v>
+      <c r="A13" s="2">
+        <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>22</v>
@@ -828,8 +828,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>13</v>
+      <c r="A14" s="5">
+        <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>24</v>
@@ -843,7 +843,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>26</v>
@@ -856,8 +856,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>15</v>
+      <c r="A16" s="5">
+        <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>30</v>
@@ -884,8 +884,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>17</v>
+      <c r="A18" s="5">
+        <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>32</v>
@@ -899,7 +899,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>34</v>
@@ -912,8 +912,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>19</v>
+      <c r="A20" s="5">
+        <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>36</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>38</v>
@@ -940,8 +940,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>21</v>
+      <c r="A22" s="5">
+        <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>40</v>
@@ -955,7 +955,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>42</v>
@@ -969,7 +969,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>44</v>
